--- a/cliente.xlsx
+++ b/cliente.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i9mun\AppData\Local\Temp\Rar$DIa5248.34724\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i9mun\Desktop\bot whatsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B35A4D9-6017-4C0A-88D0-5F290225D12A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3CC2FF-2DD0-455D-A1C1-4892B54C8637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4995" yWindow="360" windowWidth="18000" windowHeight="9810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pagina1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>nome</t>
   </si>
@@ -34,39 +34,6 @@
   </si>
   <si>
     <t>vencimento</t>
-  </si>
-  <si>
-    <t>rafael</t>
-  </si>
-  <si>
-    <t>douglas</t>
-  </si>
-  <si>
-    <t>amanda</t>
-  </si>
-  <si>
-    <t>jorge</t>
-  </si>
-  <si>
-    <t>jeffri</t>
-  </si>
-  <si>
-    <t>carol</t>
-  </si>
-  <si>
-    <t>cristian</t>
-  </si>
-  <si>
-    <t>leonardo</t>
-  </si>
-  <si>
-    <t>maria</t>
-  </si>
-  <si>
-    <t>luana</t>
-  </si>
-  <si>
-    <t>vanessa</t>
   </si>
 </sst>
 </file>
@@ -104,12 +71,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -429,145 +395,68 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D2" sqref="A2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>5579876543210</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45260</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4">
-        <v>5511987654321</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45261</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5521976543210</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45262</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <v>5531965432109</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45263</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5541954321098</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45264</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
-        <v>5551943210987</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45265</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <v>5561932109876</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45266</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5571921098765</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45267</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4">
-        <v>5581910987654</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45268</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4">
-        <v>5548898765432</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45269</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4">
-        <v>5565887654321</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45270</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
